--- a/corridas.xlsx
+++ b/corridas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Desktop\Mauricio\APPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713C4636-B547-44FB-B64D-38A4FA268D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6AFDC0-91E2-46A2-B856-09F62FB2164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4827AB74-4418-4512-B833-445990B0A4E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Corridas" sheetId="1" r:id="rId1"/>
+    <sheet name="corridas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Corridas!$A$1:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">corridas!$A$1:$D$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -619,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
